--- a/R3 test data Casco HO Prtection Insured 16022022.xlsx
+++ b/R3 test data Casco HO Prtection Insured 16022022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20383"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivaylo.vasilev\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tsvetomila.ignatova\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09551D46-ED86-4C2D-966B-D91CA8D52882}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC6BCB7-453E-497F-99E2-5D32AEFE92C4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11025" activeTab="5" xr2:uid="{09559D87-D4CB-4513-B9DC-C4483D7F45F5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10404" activeTab="5" xr2:uid="{09559D87-D4CB-4513-B9DC-C4483D7F45F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Каско щети" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="473">
   <si>
     <t>CustomerNumber</t>
   </si>
@@ -1373,27 +1373,6 @@
     <t>София , София, СОФИЯ, ЖК.МЛАДОСТ 1 25 ВХ.3 ЕТ.4 АП.84</t>
   </si>
   <si>
-    <t>София , ЖК ЛЮЛИН БЛ 416 ВХ Б ЕТ 4 АП 27</t>
-  </si>
-  <si>
-    <t>София , София, СОФИЯ, УЛ. 663-ТА (ОВЧА КУПЕЛ) 2 ЕТ.5 АП.18</t>
-  </si>
-  <si>
-    <t>София , София, ПЕТКО Ю. ТОДОРОВ 2 ВХ Б ЕТ 2 АП 25</t>
-  </si>
-  <si>
-    <t>София , УЛ ПРОФ СТАНЧО ВАКЛИНОВ 6 ВХ А ЕТ 2 АП 6</t>
-  </si>
-  <si>
-    <t>Видин , ВИДИН - Видин, НАЙЧО ЦАНОВ 20 ВХ 2</t>
-  </si>
-  <si>
-    <t>София , София, СОФИЯ Ж.К. ХАДЖИ ДИМИТЪР 53 ВХ.А ЕТ.6 АП.16</t>
-  </si>
-  <si>
-    <t>СОФИЯ , УЛ АКЕДЕМИК ЙОРДАН ТРИФОНОВ БЛ 8 ВХ А ЕТ 2 АП 202</t>
-  </si>
-  <si>
     <t>359886815482</t>
   </si>
   <si>
@@ -1406,24 +1385,6 @@
     <t>359886428161</t>
   </si>
   <si>
-    <t>359877708558</t>
-  </si>
-  <si>
-    <t>359988823782</t>
-  </si>
-  <si>
-    <t>359899913066</t>
-  </si>
-  <si>
-    <t>359883548174</t>
-  </si>
-  <si>
-    <t>359889569973</t>
-  </si>
-  <si>
-    <t>359888859779</t>
-  </si>
-  <si>
     <t>1987-05-17 00:00:00.000</t>
   </si>
   <si>
@@ -1491,12 +1452,6 @@
   </si>
   <si>
     <t>2002-51-19 00:00:00.000</t>
-  </si>
-  <si>
-    <t>1918-47-15 00:00:00.000</t>
-  </si>
-  <si>
-    <t>1980-01-29 00:00:00.000</t>
   </si>
 </sst>
 </file>
@@ -1863,15 +1818,15 @@
       <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1918,7 +1873,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2751606</v>
       </c>
@@ -1965,7 +1920,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2751606</v>
       </c>
@@ -2012,7 +1967,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2751606</v>
       </c>
@@ -2059,7 +2014,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2751606</v>
       </c>
@@ -2106,7 +2061,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2751606</v>
       </c>
@@ -2153,7 +2108,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2751606</v>
       </c>
@@ -2200,7 +2155,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2002183</v>
       </c>
@@ -2247,7 +2202,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2002183</v>
       </c>
@@ -2294,7 +2249,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2002183</v>
       </c>
@@ -2341,7 +2296,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2002183</v>
       </c>
@@ -2388,7 +2343,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2002183</v>
       </c>
@@ -2435,7 +2390,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2002183</v>
       </c>
@@ -2482,7 +2437,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2002183</v>
       </c>
@@ -2529,7 +2484,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2290216</v>
       </c>
@@ -2576,7 +2531,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1152321</v>
       </c>
@@ -2623,7 +2578,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1152321</v>
       </c>
@@ -2670,7 +2625,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1152321</v>
       </c>
@@ -2717,7 +2672,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1152321</v>
       </c>
@@ -2764,7 +2719,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1152321</v>
       </c>
@@ -2811,7 +2766,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1152321</v>
       </c>
@@ -2858,7 +2813,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1152321</v>
       </c>
@@ -2905,7 +2860,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1152321</v>
       </c>
@@ -2952,7 +2907,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1152321</v>
       </c>
@@ -2999,7 +2954,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1152321</v>
       </c>
@@ -3046,7 +3001,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1152321</v>
       </c>
@@ -3093,7 +3048,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1152321</v>
       </c>
@@ -3140,7 +3095,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1152321</v>
       </c>
@@ -3187,7 +3142,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1152321</v>
       </c>
@@ -3234,7 +3189,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1152321</v>
       </c>
@@ -3281,7 +3236,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1152321</v>
       </c>
@@ -3328,7 +3283,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1152321</v>
       </c>
@@ -3375,7 +3330,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1152321</v>
       </c>
@@ -3422,7 +3377,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2119790</v>
       </c>
@@ -3469,7 +3424,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1985520</v>
       </c>
@@ -3516,7 +3471,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1985520</v>
       </c>
@@ -3563,7 +3518,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1985520</v>
       </c>
@@ -3610,7 +3565,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1985520</v>
       </c>
@@ -3657,7 +3612,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1985520</v>
       </c>
@@ -3704,7 +3659,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1985520</v>
       </c>
@@ -3765,14 +3720,14 @@
       <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="9" max="9" width="15.85546875" customWidth="1"/>
-    <col min="13" max="13" width="16.5703125" customWidth="1"/>
-    <col min="14" max="14" width="21.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" customWidth="1"/>
+    <col min="13" max="13" width="16.5546875" customWidth="1"/>
+    <col min="14" max="14" width="21.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3825,7 +3780,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1152321</v>
       </c>
@@ -3863,7 +3818,7 @@
         <v>8705170000</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -3875,7 +3830,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1985520</v>
       </c>
@@ -3916,7 +3871,7 @@
         <v>8810246551</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -3928,7 +3883,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2002183</v>
       </c>
@@ -3969,7 +3924,7 @@
         <v>9204214597</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -3981,7 +3936,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2119790</v>
       </c>
@@ -4022,7 +3977,7 @@
         <v>8503077945</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -4034,7 +3989,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2290216</v>
       </c>
@@ -4075,7 +4030,7 @@
         <v>6304071787</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -4087,7 +4042,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2751606</v>
       </c>
@@ -4128,7 +4083,7 @@
         <v>6711055296</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -4153,14 +4108,14 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="1"/>
-    <col min="13" max="13" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" style="1"/>
+    <col min="13" max="13" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4207,7 +4162,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1985520</v>
       </c>
@@ -4254,7 +4209,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1985520</v>
       </c>
@@ -4301,7 +4256,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1985520</v>
       </c>
@@ -4348,7 +4303,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1985520</v>
       </c>
@@ -4395,7 +4350,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1073834</v>
       </c>
@@ -4442,7 +4397,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1050894</v>
       </c>
@@ -4489,7 +4444,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1050894</v>
       </c>
@@ -4536,7 +4491,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>633447</v>
       </c>
@@ -4583,7 +4538,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>700969</v>
       </c>
@@ -4630,7 +4585,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>700969</v>
       </c>
@@ -4677,7 +4632,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>373841</v>
       </c>
@@ -4724,7 +4679,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>373841</v>
       </c>
@@ -4771,7 +4726,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>373841</v>
       </c>
@@ -4818,7 +4773,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>373841</v>
       </c>
@@ -4865,7 +4820,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>373841</v>
       </c>
@@ -4912,7 +4867,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>373841</v>
       </c>
@@ -4959,7 +4914,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>367418</v>
       </c>
@@ -5006,7 +4961,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>367418</v>
       </c>
@@ -5053,7 +5008,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1361735</v>
       </c>
@@ -5100,7 +5055,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1361735</v>
       </c>
@@ -5147,7 +5102,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1361735</v>
       </c>
@@ -5194,7 +5149,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1361735</v>
       </c>
@@ -5241,7 +5196,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>348621</v>
       </c>
@@ -5288,7 +5243,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1232224</v>
       </c>
@@ -5335,7 +5290,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1407992</v>
       </c>
@@ -5382,7 +5337,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1407992</v>
       </c>
@@ -5429,7 +5384,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1407992</v>
       </c>
@@ -5476,7 +5431,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1407992</v>
       </c>
@@ -5523,7 +5478,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1407992</v>
       </c>
@@ -5570,7 +5525,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1407992</v>
       </c>
@@ -5617,7 +5572,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1901404</v>
       </c>
@@ -5664,7 +5619,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1901404</v>
       </c>
@@ -5711,7 +5666,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1901404</v>
       </c>
@@ -5758,7 +5713,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1901404</v>
       </c>
@@ -5805,7 +5760,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1901404</v>
       </c>
@@ -5852,7 +5807,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2739500</v>
       </c>
@@ -5899,7 +5854,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2739500</v>
       </c>
@@ -5946,7 +5901,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1959492</v>
       </c>
@@ -5993,7 +5948,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1688246</v>
       </c>
@@ -6053,14 +6008,14 @@
       <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="9" max="9" width="14" style="1" customWidth="1"/>
-    <col min="13" max="13" width="13.28515625" customWidth="1"/>
-    <col min="14" max="14" width="23.42578125" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" customWidth="1"/>
+    <col min="14" max="14" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6113,7 +6068,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>348621</v>
       </c>
@@ -6154,7 +6109,7 @@
         <v>5803062405</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -6166,7 +6121,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>367418</v>
       </c>
@@ -6207,7 +6162,7 @@
         <v>7104103087</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -6219,7 +6174,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>373841</v>
       </c>
@@ -6260,7 +6215,7 @@
         <v>7202063224</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -6272,7 +6227,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>633447</v>
       </c>
@@ -6313,7 +6268,7 @@
         <v>5804277603</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -6325,7 +6280,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>700969</v>
       </c>
@@ -6366,7 +6321,7 @@
         <v>6303194576</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -6378,7 +6333,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1050894</v>
       </c>
@@ -6419,7 +6374,7 @@
         <v>6009026711</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -6431,7 +6386,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1073834</v>
       </c>
@@ -6472,7 +6427,7 @@
         <v>5708125800</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -6484,7 +6439,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1232224</v>
       </c>
@@ -6525,7 +6480,7 @@
         <v>8101144464</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -6537,7 +6492,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1361735</v>
       </c>
@@ -6578,7 +6533,7 @@
         <v>5705096925</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -6590,7 +6545,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1407992</v>
       </c>
@@ -6631,7 +6586,7 @@
         <v>8112050578</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -6643,7 +6598,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1688246</v>
       </c>
@@ -6684,7 +6639,7 @@
         <v>6102103785</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -6696,7 +6651,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1901404</v>
       </c>
@@ -6737,7 +6692,7 @@
         <v>8008246401</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -6749,7 +6704,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1901404</v>
       </c>
@@ -6790,7 +6745,7 @@
         <v>8008246401</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -6802,7 +6757,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1959492</v>
       </c>
@@ -6843,7 +6798,7 @@
         <v>8508258571</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -6855,7 +6810,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1985520</v>
       </c>
@@ -6896,7 +6851,7 @@
         <v>8810246551</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -6908,7 +6863,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2739500</v>
       </c>
@@ -6949,7 +6904,7 @@
         <v>8210291728</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -6974,15 +6929,15 @@
       <selection activeCell="K1" sqref="K1:K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="9" max="9" width="19" customWidth="1"/>
     <col min="13" max="13" width="18" style="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" customWidth="1"/>
-    <col min="24" max="24" width="19.85546875" customWidth="1"/>
+    <col min="17" max="17" width="13.44140625" customWidth="1"/>
+    <col min="24" max="24" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>298</v>
       </c>
@@ -7071,7 +7026,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>9633752</v>
       </c>
@@ -7160,7 +7115,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>9633752</v>
       </c>
@@ -7249,7 +7204,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>9633752</v>
       </c>
@@ -7338,7 +7293,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>9633752</v>
       </c>
@@ -7427,7 +7382,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>9633752</v>
       </c>
@@ -7516,7 +7471,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>9633752</v>
       </c>
@@ -7605,7 +7560,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>9633752</v>
       </c>
@@ -7694,7 +7649,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9633752</v>
       </c>
@@ -7783,7 +7738,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9633752</v>
       </c>
@@ -7872,7 +7827,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9633752</v>
       </c>
@@ -7961,7 +7916,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>9633752</v>
       </c>
@@ -8061,17 +8016,17 @@
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="A6" sqref="A6:XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="9" max="9" width="17.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="16.140625" customWidth="1"/>
-    <col min="14" max="14" width="22.28515625" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="16.109375" customWidth="1"/>
+    <col min="14" max="14" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8124,7 +8079,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>869936</v>
       </c>
@@ -8147,7 +8102,7 @@
         <v>346</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="J2" t="s">
         <v>441</v>
@@ -8162,7 +8117,7 @@
         <v>8104046482</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -8174,7 +8129,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2605536</v>
       </c>
@@ -8197,7 +8152,7 @@
         <v>382</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="J3" t="s">
         <v>443</v>
@@ -8212,7 +8167,7 @@
         <v>950217021</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -8224,7 +8179,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1870705</v>
       </c>
@@ -8247,7 +8202,7 @@
         <v>390</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="J4" t="s">
         <v>444</v>
@@ -8274,7 +8229,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1442076</v>
       </c>
@@ -8297,7 +8252,7 @@
         <v>372</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="J5" t="s">
         <v>445</v>
@@ -8312,7 +8267,7 @@
         <v>251196653</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -8324,355 +8279,26 @@
         <v>373</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2546224</v>
-      </c>
-      <c r="B6" t="s">
-        <v>405</v>
-      </c>
-      <c r="C6" t="s">
-        <v>406</v>
-      </c>
-      <c r="D6" t="s">
-        <v>407</v>
-      </c>
-      <c r="E6" t="s">
-        <v>408</v>
-      </c>
-      <c r="F6" t="s">
-        <v>409</v>
-      </c>
-      <c r="G6" t="s">
-        <v>410</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="J6" t="s">
-        <v>446</v>
-      </c>
-      <c r="K6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L6" t="s">
-        <v>16</v>
-      </c>
-      <c r="M6">
-        <v>48086967</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="s">
-        <v>403</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1861025</v>
-      </c>
-      <c r="B7" t="s">
-        <v>377</v>
-      </c>
-      <c r="C7" t="s">
-        <v>378</v>
-      </c>
-      <c r="D7" t="s">
-        <v>379</v>
-      </c>
-      <c r="E7" t="s">
-        <v>380</v>
-      </c>
-      <c r="F7" t="s">
-        <v>381</v>
-      </c>
-      <c r="G7" t="s">
-        <v>382</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="J7" t="s">
-        <v>447</v>
-      </c>
-      <c r="K7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M7">
-        <v>7703063660</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="s">
-        <v>375</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>699227</v>
-      </c>
-      <c r="B8" t="s">
-        <v>330</v>
-      </c>
-      <c r="C8" t="s">
-        <v>331</v>
-      </c>
-      <c r="D8" t="s">
-        <v>332</v>
-      </c>
-      <c r="E8" t="s">
-        <v>333</v>
-      </c>
-      <c r="F8" t="s">
-        <v>334</v>
-      </c>
-      <c r="G8" t="s">
-        <v>335</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="J8" t="s">
-        <v>448</v>
-      </c>
-      <c r="K8" t="s">
-        <v>36</v>
-      </c>
-      <c r="L8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M8">
-        <v>6302256673</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2520961</v>
-      </c>
-      <c r="B9" t="s">
-        <v>416</v>
-      </c>
-      <c r="C9" t="s">
-        <v>368</v>
-      </c>
-      <c r="D9" t="s">
-        <v>417</v>
-      </c>
-      <c r="E9" t="s">
-        <v>418</v>
-      </c>
-      <c r="F9" t="s">
-        <v>371</v>
-      </c>
-      <c r="G9" t="s">
-        <v>419</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="J9" t="s">
-        <v>449</v>
-      </c>
-      <c r="K9" t="s">
-        <v>36</v>
-      </c>
-      <c r="L9" t="s">
-        <v>16</v>
-      </c>
-      <c r="M9">
-        <v>1847156314</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="s">
-        <v>414</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>989472</v>
-      </c>
-      <c r="B10" t="s">
-        <v>350</v>
-      </c>
-      <c r="C10" t="s">
-        <v>351</v>
-      </c>
-      <c r="D10" t="s">
-        <v>352</v>
-      </c>
-      <c r="E10" t="s">
-        <v>353</v>
-      </c>
-      <c r="F10" t="s">
-        <v>354</v>
-      </c>
-      <c r="G10" t="s">
-        <v>355</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="J10" t="s">
-        <v>450</v>
-      </c>
-      <c r="K10" t="s">
-        <v>36</v>
-      </c>
-      <c r="L10" t="s">
-        <v>16</v>
-      </c>
-      <c r="M10">
-        <v>8502181702</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="s">
-        <v>348</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2479619</v>
-      </c>
-      <c r="B11" t="s">
-        <v>395</v>
-      </c>
-      <c r="C11" t="s">
-        <v>396</v>
-      </c>
-      <c r="D11" t="s">
-        <v>397</v>
-      </c>
-      <c r="E11" t="s">
-        <v>398</v>
-      </c>
-      <c r="F11" t="s">
-        <v>399</v>
-      </c>
-      <c r="G11" t="s">
-        <v>400</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="J11" t="s">
-        <v>451</v>
-      </c>
-      <c r="K11" t="s">
-        <v>36</v>
-      </c>
-      <c r="L11" t="s">
-        <v>16</v>
-      </c>
-      <c r="M11">
-        <v>5605066871</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="s">
-        <v>393</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1325573</v>
-      </c>
-      <c r="B12" t="s">
-        <v>360</v>
-      </c>
-      <c r="C12" t="s">
-        <v>214</v>
-      </c>
-      <c r="D12" t="s">
-        <v>361</v>
-      </c>
-      <c r="E12" t="s">
-        <v>362</v>
-      </c>
-      <c r="F12" t="s">
-        <v>217</v>
-      </c>
-      <c r="G12" t="s">
-        <v>363</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="J12" t="s">
-        <v>452</v>
-      </c>
-      <c r="K12" t="s">
-        <v>36</v>
-      </c>
-      <c r="L12" t="s">
-        <v>16</v>
-      </c>
-      <c r="M12">
-        <v>8001296720</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>364</v>
-      </c>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
